--- a/Outputs/Exp_ER_Run_2_exclusions/Behavior Tables/run_2_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_ER_Run_2_exclusions/Behavior Tables/run_2_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7895" uniqueCount="48">
   <si>
     <t>TagNumber</t>
   </si>
@@ -152,6 +152,12 @@
   <si>
     <t>NonAcquire</t>
   </si>
+  <si>
+    <t>SessionWeightUpdated</t>
+  </si>
+  <si>
+    <t>{0,3,5,11,13}</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y137"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -225,8 +231,9 @@
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
     <col min="22" max="22" width="15.5703125" customWidth="true"/>
     <col min="23" max="23" width="9.140625" customWidth="true"/>
-    <col min="24" max="24" width="11.42578125" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="21.85546875" customWidth="true"/>
+    <col min="25" max="25" width="11.42578125" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -300,9 +307,12 @@
         <v>40</v>
       </c>
       <c r="X1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>44</v>
       </c>
     </row>
@@ -377,9 +387,12 @@
         <v>5</v>
       </c>
       <c r="X2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -412,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="0">
-        <v>272.5</v>
+        <v>270.66666666666669</v>
       </c>
       <c r="K3" s="0">
         <v>12</v>
@@ -454,9 +467,12 @@
         <v>5</v>
       </c>
       <c r="X3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -489,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="0">
-        <v>272</v>
+        <v>268.33333333333331</v>
       </c>
       <c r="K4" s="0">
         <v>16</v>
@@ -531,9 +547,12 @@
         <v>5</v>
       </c>
       <c r="X4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -566,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="0">
-        <v>271.5</v>
+        <v>266</v>
       </c>
       <c r="K5" s="0">
         <v>9</v>
@@ -608,9 +627,12 @@
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -643,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="0">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K6" s="0">
         <v>6</v>
@@ -685,9 +707,12 @@
         <v>5</v>
       </c>
       <c r="X6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Z6" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -720,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="0">
-        <v>270.5</v>
+        <v>270</v>
       </c>
       <c r="K7" s="0">
         <v>5</v>
@@ -762,9 +787,12 @@
         <v>5</v>
       </c>
       <c r="X7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Z7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -839,9 +867,12 @@
         <v>5</v>
       </c>
       <c r="X8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Z8" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -916,9 +947,12 @@
         <v>5</v>
       </c>
       <c r="X9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -993,9 +1027,12 @@
         <v>5</v>
       </c>
       <c r="X10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1070,9 +1107,12 @@
         <v>5</v>
       </c>
       <c r="X11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Z11" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1147,9 +1187,12 @@
         <v>5</v>
       </c>
       <c r="X12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Z12" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1224,10 +1267,13 @@
         <v>6</v>
       </c>
       <c r="X13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="0" t="s">
-        <v>44</v>
+      <c r="Z13" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>263.66666666666669</v>
+        <v>262</v>
       </c>
       <c r="K14" s="0">
         <v>14</v>
@@ -1301,10 +1347,13 @@
         <v>6</v>
       </c>
       <c r="X14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="0" t="s">
-        <v>44</v>
+      <c r="Z14" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1336,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="0">
-        <v>263.33333333333331</v>
+        <v>260</v>
       </c>
       <c r="K15" s="0">
         <v>14</v>
@@ -1378,10 +1427,13 @@
         <v>6</v>
       </c>
       <c r="X15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" s="0" t="s">
-        <v>44</v>
+      <c r="Z15" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -1413,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="0">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K16" s="0">
         <v>15</v>
@@ -1455,10 +1507,13 @@
         <v>6</v>
       </c>
       <c r="X16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y16" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="0" t="s">
-        <v>44</v>
+      <c r="Z16" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -1490,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="0">
-        <v>262.66666666666669</v>
+        <v>260</v>
       </c>
       <c r="K17" s="0">
         <v>21</v>
@@ -1532,10 +1587,13 @@
         <v>6</v>
       </c>
       <c r="X17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" s="0" t="s">
-        <v>44</v>
+      <c r="Z17" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1567,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="0">
-        <v>262.33333333333331</v>
+        <v>262</v>
       </c>
       <c r="K18" s="0">
         <v>12</v>
@@ -1609,10 +1667,13 @@
         <v>6</v>
       </c>
       <c r="X18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="0" t="s">
-        <v>44</v>
+      <c r="Z18" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1686,10 +1747,13 @@
         <v>6</v>
       </c>
       <c r="X19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y19" s="0" t="s">
-        <v>44</v>
+      <c r="Z19" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1763,10 +1827,13 @@
         <v>6</v>
       </c>
       <c r="X20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="0" t="s">
-        <v>44</v>
+      <c r="Z20" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -1840,10 +1907,13 @@
         <v>6</v>
       </c>
       <c r="X21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y21" s="0" t="s">
-        <v>44</v>
+      <c r="Z21" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1917,10 +1987,13 @@
         <v>6</v>
       </c>
       <c r="X22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="0" t="s">
-        <v>44</v>
+      <c r="Z22" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -1994,10 +2067,13 @@
         <v>6</v>
       </c>
       <c r="X23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y23" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="0" t="s">
-        <v>44</v>
+      <c r="Z23" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -2071,9 +2147,12 @@
         <v>13</v>
       </c>
       <c r="X24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y24" s="0" t="s">
+      <c r="Z24" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2106,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="0">
-        <v>415.16666666666669</v>
+        <v>413</v>
       </c>
       <c r="K25" s="0">
         <v>15</v>
@@ -2148,9 +2227,12 @@
         <v>13</v>
       </c>
       <c r="X25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="0" t="s">
+      <c r="Z25" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2183,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="0">
-        <v>417.33333333333331</v>
+        <v>413</v>
       </c>
       <c r="K26" s="0">
         <v>7</v>
@@ -2225,9 +2307,12 @@
         <v>13</v>
       </c>
       <c r="X26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y26" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y26" s="0" t="s">
+      <c r="Z26" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2260,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="0">
-        <v>419.5</v>
+        <v>413</v>
       </c>
       <c r="K27" s="0">
         <v>14</v>
@@ -2302,9 +2387,12 @@
         <v>13</v>
       </c>
       <c r="X27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y27" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y27" s="0" t="s">
+      <c r="Z27" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2337,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="0">
-        <v>423.83333333333331</v>
+        <v>426</v>
       </c>
       <c r="K28" s="0">
         <v>10</v>
@@ -2379,9 +2467,12 @@
         <v>13</v>
       </c>
       <c r="X28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="0" t="s">
+      <c r="Z28" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2456,9 +2547,12 @@
         <v>13</v>
       </c>
       <c r="X29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y29" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="0" t="s">
+      <c r="Z29" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2533,9 +2627,12 @@
         <v>13</v>
       </c>
       <c r="X30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y30" s="0" t="s">
+      <c r="Z30" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2610,9 +2707,12 @@
         <v>13</v>
       </c>
       <c r="X31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y31" s="0" t="s">
+      <c r="Z31" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2687,9 +2787,12 @@
         <v>13</v>
       </c>
       <c r="X32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y32" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="0" t="s">
+      <c r="Z32" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2764,9 +2867,12 @@
         <v>13</v>
       </c>
       <c r="X33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y33" s="0" t="s">
+      <c r="Z33" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2839,10 +2945,13 @@
         <v>14</v>
       </c>
       <c r="X34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y34" s="0" t="s">
-        <v>44</v>
+      <c r="Z34" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -2874,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="0">
-        <v>354.16666666666669</v>
+        <v>356.66666666666669</v>
       </c>
       <c r="K35" s="0">
         <v>13</v>
@@ -2916,10 +3025,13 @@
         <v>14</v>
       </c>
       <c r="X35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y35" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y35" s="0" t="s">
-        <v>44</v>
+      <c r="Z35" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -2951,7 +3063,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="0">
-        <v>358.33333333333331</v>
+        <v>363.33333333333331</v>
       </c>
       <c r="K36" s="0">
         <v>18</v>
@@ -2993,10 +3105,13 @@
         <v>14</v>
       </c>
       <c r="X36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y36" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y36" s="0" t="s">
-        <v>44</v>
+      <c r="Z36" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -3028,7 +3143,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="0">
-        <v>362.5</v>
+        <v>370</v>
       </c>
       <c r="K37" s="0">
         <v>18</v>
@@ -3070,10 +3185,13 @@
         <v>14</v>
       </c>
       <c r="X37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y37" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y37" s="0" t="s">
-        <v>44</v>
+      <c r="Z37" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -3105,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="0">
-        <v>366.66666666666669</v>
+        <v>372.5</v>
       </c>
       <c r="K38" s="0">
         <v>22</v>
@@ -3147,10 +3265,13 @@
         <v>14</v>
       </c>
       <c r="X38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y38" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y38" s="0" t="s">
-        <v>44</v>
+      <c r="Z38" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -3182,7 +3303,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="0">
-        <v>370.83333333333331</v>
+        <v>375</v>
       </c>
       <c r="K39" s="0">
         <v>30</v>
@@ -3224,10 +3345,13 @@
         <v>14</v>
       </c>
       <c r="X39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y39" s="0" t="s">
-        <v>44</v>
+      <c r="Z39" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -3301,10 +3425,13 @@
         <v>14</v>
       </c>
       <c r="X40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y40" s="0" t="s">
-        <v>44</v>
+      <c r="Z40" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -3378,10 +3505,13 @@
         <v>14</v>
       </c>
       <c r="X41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y41" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y41" s="0" t="s">
-        <v>44</v>
+      <c r="Z41" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -3455,10 +3585,13 @@
         <v>14</v>
       </c>
       <c r="X42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y42" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y42" s="0" t="s">
-        <v>44</v>
+      <c r="Z42" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -3532,10 +3665,13 @@
         <v>14</v>
       </c>
       <c r="X43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y43" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="0" t="s">
-        <v>44</v>
+      <c r="Z43" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -3609,10 +3745,13 @@
         <v>14</v>
       </c>
       <c r="X44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y44" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y44" s="0" t="s">
-        <v>44</v>
+      <c r="Z44" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -3686,10 +3825,13 @@
         <v>5</v>
       </c>
       <c r="X45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y45" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y45" s="0" t="s">
-        <v>44</v>
+      <c r="Z45" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -3721,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>277.5</v>
+        <v>276.66666666666669</v>
       </c>
       <c r="K46" s="0">
         <v>16</v>
@@ -3763,10 +3905,13 @@
         <v>5</v>
       </c>
       <c r="X46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y46" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y46" s="0" t="s">
-        <v>44</v>
+      <c r="Z46" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -3798,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="0">
-        <v>279</v>
+        <v>277.33333333333331</v>
       </c>
       <c r="K47" s="0">
         <v>10</v>
@@ -3840,10 +3985,13 @@
         <v>5</v>
       </c>
       <c r="X47" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y47" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y47" s="0" t="s">
-        <v>44</v>
+      <c r="Z47" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -3875,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="0">
-        <v>280.5</v>
+        <v>278</v>
       </c>
       <c r="K48" s="0">
         <v>10</v>
@@ -3917,10 +4065,13 @@
         <v>5</v>
       </c>
       <c r="X48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y48" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y48" s="0" t="s">
-        <v>44</v>
+      <c r="Z48" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -3952,7 +4103,7 @@
         <v>64</v>
       </c>
       <c r="J49" s="0">
-        <v>282</v>
+        <v>281.5</v>
       </c>
       <c r="K49" s="0">
         <v>9</v>
@@ -3994,10 +4145,13 @@
         <v>5</v>
       </c>
       <c r="X49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y49" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y49" s="0" t="s">
-        <v>44</v>
+      <c r="Z49" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -4029,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="0">
-        <v>283.5</v>
+        <v>285</v>
       </c>
       <c r="K50" s="0">
         <v>15</v>
@@ -4071,10 +4225,13 @@
         <v>5</v>
       </c>
       <c r="X50" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y50" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y50" s="0" t="s">
-        <v>44</v>
+      <c r="Z50" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51">
@@ -4148,10 +4305,13 @@
         <v>5</v>
       </c>
       <c r="X51" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y51" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y51" s="0" t="s">
-        <v>44</v>
+      <c r="Z51" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -4225,10 +4385,13 @@
         <v>5</v>
       </c>
       <c r="X52" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y52" s="0" t="s">
-        <v>44</v>
+      <c r="Z52" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -4302,10 +4465,13 @@
         <v>5</v>
       </c>
       <c r="X53" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y53" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y53" s="0" t="s">
-        <v>44</v>
+      <c r="Z53" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -4379,10 +4545,13 @@
         <v>5</v>
       </c>
       <c r="X54" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y54" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y54" s="0" t="s">
-        <v>44</v>
+      <c r="Z54" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -4456,10 +4625,13 @@
         <v>5</v>
       </c>
       <c r="X55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y55" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y55" s="0" t="s">
-        <v>44</v>
+      <c r="Z55" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -4531,10 +4703,13 @@
         <v>3</v>
       </c>
       <c r="X56" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y56" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y56" s="0" t="s">
-        <v>44</v>
+      <c r="Z56" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="57">
@@ -4566,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="0">
-        <v>239.33333333333334</v>
+        <v>238.66666666666666</v>
       </c>
       <c r="K57" s="0">
         <v>18</v>
@@ -4608,10 +4783,13 @@
         <v>3</v>
       </c>
       <c r="X57" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y57" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y57" s="0" t="s">
-        <v>44</v>
+      <c r="Z57" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -4643,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>240.66666666666666</v>
+        <v>239.33333333333334</v>
       </c>
       <c r="K58" s="0">
         <v>12</v>
@@ -4685,10 +4863,13 @@
         <v>3</v>
       </c>
       <c r="X58" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y58" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y58" s="0" t="s">
-        <v>44</v>
+      <c r="Z58" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -4720,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="J59" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K59" s="0">
         <v>14</v>
@@ -4762,10 +4943,13 @@
         <v>3</v>
       </c>
       <c r="X59" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y59" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y59" s="0" t="s">
-        <v>44</v>
+      <c r="Z59" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -4795,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="0">
-        <v>243.33333333333334</v>
+        <v>243</v>
       </c>
       <c r="K60" s="0">
         <v>16</v>
@@ -4837,10 +5021,13 @@
         <v>3</v>
       </c>
       <c r="X60" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y60" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y60" s="0" t="s">
-        <v>44</v>
+      <c r="Z60" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -4870,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="0">
-        <v>244.66666666666666</v>
+        <v>246</v>
       </c>
       <c r="K61" s="0">
         <v>11</v>
@@ -4912,10 +5099,13 @@
         <v>3</v>
       </c>
       <c r="X61" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y61" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y61" s="0" t="s">
-        <v>44</v>
+      <c r="Z61" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="62">
@@ -4989,10 +5179,13 @@
         <v>3</v>
       </c>
       <c r="X62" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y62" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y62" s="0" t="s">
-        <v>44</v>
+      <c r="Z62" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -5066,10 +5259,13 @@
         <v>3</v>
       </c>
       <c r="X63" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y63" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y63" s="0" t="s">
-        <v>44</v>
+      <c r="Z63" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -5143,10 +5339,13 @@
         <v>3</v>
       </c>
       <c r="X64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y64" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y64" s="0" t="s">
-        <v>44</v>
+      <c r="Z64" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -5220,10 +5419,13 @@
         <v>3</v>
       </c>
       <c r="X65" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y65" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y65" s="0" t="s">
-        <v>44</v>
+      <c r="Z65" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -5297,10 +5499,13 @@
         <v>3</v>
       </c>
       <c r="X66" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y66" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y66" s="0" t="s">
-        <v>44</v>
+      <c r="Z66" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="67">
@@ -5372,9 +5577,12 @@
         <v>6</v>
       </c>
       <c r="X67" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y67" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y67" s="0" t="s">
+      <c r="Z67" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5407,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="J68" s="0">
-        <v>252.66666666666666</v>
+        <v>253</v>
       </c>
       <c r="K68" s="0">
         <v>4</v>
@@ -5449,9 +5657,12 @@
         <v>6</v>
       </c>
       <c r="X68" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y68" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y68" s="0" t="s">
+      <c r="Z68" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5484,7 +5695,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="0">
-        <v>254.33333333333334</v>
+        <v>255</v>
       </c>
       <c r="K69" s="0">
         <v>6</v>
@@ -5526,9 +5737,12 @@
         <v>6</v>
       </c>
       <c r="X69" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y69" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y69" s="0" t="s">
+      <c r="Z69" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5559,7 +5773,7 @@
         <v>10</v>
       </c>
       <c r="J70" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K70" s="0">
         <v>3</v>
@@ -5601,9 +5815,12 @@
         <v>6</v>
       </c>
       <c r="X70" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y70" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y70" s="0" t="s">
+      <c r="Z70" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5636,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="0">
-        <v>257.66666666666669</v>
+        <v>257</v>
       </c>
       <c r="K71" s="0">
         <v>1</v>
@@ -5678,9 +5895,12 @@
         <v>6</v>
       </c>
       <c r="X71" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y71" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y71" s="0" t="s">
+      <c r="Z71" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5755,9 +5975,12 @@
         <v>6</v>
       </c>
       <c r="X72" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y72" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y72" s="0" t="s">
+      <c r="Z72" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5832,9 +6055,12 @@
         <v>6</v>
       </c>
       <c r="X73" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y73" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y73" s="0" t="s">
+      <c r="Z73" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5909,9 +6135,12 @@
         <v>6</v>
       </c>
       <c r="X74" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y74" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y74" s="0" t="s">
+      <c r="Z74" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5984,9 +6213,12 @@
         <v>6</v>
       </c>
       <c r="X75" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y75" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y75" s="0" t="s">
+      <c r="Z75" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6061,9 +6293,12 @@
         <v>6</v>
       </c>
       <c r="X76" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y76" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y76" s="0" t="s">
+      <c r="Z76" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6138,10 +6373,13 @@
         <v>4</v>
       </c>
       <c r="X77" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y77" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y77" s="0" t="s">
-        <v>44</v>
+      <c r="Z77" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="78">
@@ -6171,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="0">
-        <v>277</v>
+        <v>276.33333333333331</v>
       </c>
       <c r="K78" s="0">
         <v>13</v>
@@ -6213,10 +6451,13 @@
         <v>4</v>
       </c>
       <c r="X78" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y78" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y78" s="0" t="s">
-        <v>44</v>
+      <c r="Z78" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -6248,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="0">
-        <v>278</v>
+        <v>276.66666666666669</v>
       </c>
       <c r="K79" s="0">
         <v>16</v>
@@ -6290,10 +6531,13 @@
         <v>4</v>
       </c>
       <c r="X79" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y79" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y79" s="0" t="s">
-        <v>44</v>
+      <c r="Z79" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="80">
@@ -6325,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K80" s="0">
         <v>11</v>
@@ -6367,10 +6611,13 @@
         <v>4</v>
       </c>
       <c r="X80" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y80" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y80" s="0" t="s">
-        <v>44</v>
+      <c r="Z80" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="81">
@@ -6400,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="0">
-        <v>280</v>
+        <v>279.5</v>
       </c>
       <c r="K81" s="0">
         <v>18</v>
@@ -6442,10 +6689,13 @@
         <v>4</v>
       </c>
       <c r="X81" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y81" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y81" s="0" t="s">
-        <v>44</v>
+      <c r="Z81" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="82">
@@ -6475,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K82" s="0">
         <v>12</v>
@@ -6517,10 +6767,13 @@
         <v>4</v>
       </c>
       <c r="X82" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y82" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y82" s="0" t="s">
-        <v>44</v>
+      <c r="Z82" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="83">
@@ -6594,10 +6847,13 @@
         <v>4</v>
       </c>
       <c r="X83" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y83" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y83" s="0" t="s">
-        <v>44</v>
+      <c r="Z83" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84">
@@ -6671,10 +6927,13 @@
         <v>4</v>
       </c>
       <c r="X84" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y84" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y84" s="0" t="s">
-        <v>44</v>
+      <c r="Z84" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="85">
@@ -6748,10 +7007,13 @@
         <v>4</v>
       </c>
       <c r="X85" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y85" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y85" s="0" t="s">
-        <v>44</v>
+      <c r="Z85" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86">
@@ -6825,10 +7087,13 @@
         <v>4</v>
       </c>
       <c r="X86" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y86" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y86" s="0" t="s">
-        <v>44</v>
+      <c r="Z86" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="87">
@@ -6902,10 +7167,13 @@
         <v>4</v>
       </c>
       <c r="X87" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y87" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y87" s="0" t="s">
-        <v>44</v>
+      <c r="Z87" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88">
@@ -6979,10 +7247,13 @@
         <v>11</v>
       </c>
       <c r="X88" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y88" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y88" s="0" t="s">
-        <v>44</v>
+      <c r="Z88" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89">
@@ -7012,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="J89" s="0">
-        <v>404</v>
+        <v>404.66666666666669</v>
       </c>
       <c r="K89" s="0">
         <v>15</v>
@@ -7054,10 +7325,13 @@
         <v>11</v>
       </c>
       <c r="X89" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y89" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y89" s="0" t="s">
-        <v>44</v>
+      <c r="Z89" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="90">
@@ -7089,7 +7363,7 @@
         <v>17</v>
       </c>
       <c r="J90" s="0">
-        <v>406</v>
+        <v>407.33333333333331</v>
       </c>
       <c r="K90" s="0">
         <v>15</v>
@@ -7131,10 +7405,13 @@
         <v>11</v>
       </c>
       <c r="X90" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y90" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y90" s="0" t="s">
-        <v>44</v>
+      <c r="Z90" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="91">
@@ -7166,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="J91" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K91" s="0">
         <v>11</v>
@@ -7208,10 +7485,13 @@
         <v>11</v>
       </c>
       <c r="X91" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y91" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y91" s="0" t="s">
-        <v>44</v>
+      <c r="Z91" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="92">
@@ -7243,7 +7523,7 @@
         <v>10</v>
       </c>
       <c r="J92" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K92" s="0">
         <v>9</v>
@@ -7285,10 +7565,13 @@
         <v>11</v>
       </c>
       <c r="X92" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y92" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y92" s="0" t="s">
-        <v>44</v>
+      <c r="Z92" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -7320,7 +7603,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K93" s="0">
         <v>9</v>
@@ -7362,10 +7645,13 @@
         <v>11</v>
       </c>
       <c r="X93" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y93" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y93" s="0" t="s">
-        <v>44</v>
+      <c r="Z93" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94">
@@ -7439,10 +7725,13 @@
         <v>11</v>
       </c>
       <c r="X94" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y94" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y94" s="0" t="s">
-        <v>44</v>
+      <c r="Z94" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -7516,10 +7805,13 @@
         <v>11</v>
       </c>
       <c r="X95" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y95" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y95" s="0" t="s">
-        <v>44</v>
+      <c r="Z95" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96">
@@ -7593,10 +7885,13 @@
         <v>11</v>
       </c>
       <c r="X96" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y96" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y96" s="0" t="s">
-        <v>44</v>
+      <c r="Z96" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -7670,10 +7965,13 @@
         <v>11</v>
       </c>
       <c r="X97" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y97" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y97" s="0" t="s">
-        <v>44</v>
+      <c r="Z97" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="98">
@@ -7747,10 +8045,13 @@
         <v>11</v>
       </c>
       <c r="X98" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y98" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y98" s="0" t="s">
-        <v>44</v>
+      <c r="Z98" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -7824,10 +8125,13 @@
         <v>12</v>
       </c>
       <c r="X99" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y99" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y99" s="0" t="s">
-        <v>44</v>
+      <c r="Z99" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="100">
@@ -7859,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="0">
-        <v>415.33333333333331</v>
+        <v>414.33333333333331</v>
       </c>
       <c r="K100" s="0">
         <v>17</v>
@@ -7901,10 +8205,13 @@
         <v>12</v>
       </c>
       <c r="X100" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y100" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y100" s="0" t="s">
-        <v>44</v>
+      <c r="Z100" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -7936,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="0">
-        <v>416.66666666666669</v>
+        <v>414.66666666666669</v>
       </c>
       <c r="K101" s="0">
         <v>20</v>
@@ -7978,10 +8285,13 @@
         <v>12</v>
       </c>
       <c r="X101" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y101" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y101" s="0" t="s">
-        <v>44</v>
+      <c r="Z101" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="102">
@@ -8013,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="0">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K102" s="0">
         <v>11</v>
@@ -8055,10 +8365,13 @@
         <v>12</v>
       </c>
       <c r="X102" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y102" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y102" s="0" t="s">
-        <v>44</v>
+      <c r="Z102" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="103">
@@ -8090,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="0">
-        <v>419.33333333333331</v>
+        <v>418.5</v>
       </c>
       <c r="K103" s="0">
         <v>10</v>
@@ -8132,10 +8445,13 @@
         <v>12</v>
       </c>
       <c r="X103" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y103" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y103" s="0" t="s">
-        <v>44</v>
+      <c r="Z103" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104">
@@ -8167,7 +8483,7 @@
         <v>4</v>
       </c>
       <c r="J104" s="0">
-        <v>420.66666666666669</v>
+        <v>422</v>
       </c>
       <c r="K104" s="0">
         <v>16</v>
@@ -8209,10 +8525,13 @@
         <v>12</v>
       </c>
       <c r="X104" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y104" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y104" s="0" t="s">
-        <v>44</v>
+      <c r="Z104" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="105">
@@ -8286,10 +8605,13 @@
         <v>12</v>
       </c>
       <c r="X105" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y105" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y105" s="0" t="s">
-        <v>44</v>
+      <c r="Z105" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -8363,10 +8685,13 @@
         <v>12</v>
       </c>
       <c r="X106" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y106" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y106" s="0" t="s">
-        <v>44</v>
+      <c r="Z106" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="107">
@@ -8440,10 +8765,13 @@
         <v>12</v>
       </c>
       <c r="X107" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y107" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y107" s="0" t="s">
-        <v>44</v>
+      <c r="Z107" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108">
@@ -8517,10 +8845,13 @@
         <v>12</v>
       </c>
       <c r="X108" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y108" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y108" s="0" t="s">
-        <v>44</v>
+      <c r="Z108" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="109">
@@ -8594,10 +8925,13 @@
         <v>12</v>
       </c>
       <c r="X109" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y109" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y109" s="0" t="s">
-        <v>44</v>
+      <c r="Z109" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="110">
@@ -8671,10 +9005,13 @@
         <v>13</v>
       </c>
       <c r="X110" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y110" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y110" s="0" t="s">
-        <v>44</v>
+      <c r="Z110" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="111">
@@ -8706,7 +9043,7 @@
         <v>7</v>
       </c>
       <c r="J111" s="0">
-        <v>364.16666666666669</v>
+        <v>363.66666666666669</v>
       </c>
       <c r="K111" s="0">
         <v>20</v>
@@ -8748,10 +9085,13 @@
         <v>13</v>
       </c>
       <c r="X111" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y111" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y111" s="0" t="s">
-        <v>44</v>
+      <c r="Z111" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112">
@@ -8781,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="0">
-        <v>365.33333333333331</v>
+        <v>364.33333333333331</v>
       </c>
       <c r="K112" s="0">
         <v>13</v>
@@ -8823,10 +9163,13 @@
         <v>13</v>
       </c>
       <c r="X112" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y112" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y112" s="0" t="s">
-        <v>44</v>
+      <c r="Z112" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="113">
@@ -8858,7 +9201,7 @@
         <v>4</v>
       </c>
       <c r="J113" s="0">
-        <v>366.5</v>
+        <v>365</v>
       </c>
       <c r="K113" s="0">
         <v>55</v>
@@ -8900,10 +9243,13 @@
         <v>13</v>
       </c>
       <c r="X113" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y113" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y113" s="0" t="s">
-        <v>44</v>
+      <c r="Z113" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114">
@@ -8935,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="0">
-        <v>367.66666666666669</v>
+        <v>367.5</v>
       </c>
       <c r="K114" s="0">
         <v>62</v>
@@ -8977,10 +9323,13 @@
         <v>13</v>
       </c>
       <c r="X114" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y114" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y114" s="0" t="s">
-        <v>44</v>
+      <c r="Z114" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115">
@@ -9012,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="J115" s="0">
-        <v>368.83333333333331</v>
+        <v>370</v>
       </c>
       <c r="K115" s="0">
         <v>90</v>
@@ -9054,10 +9403,13 @@
         <v>13</v>
       </c>
       <c r="X115" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y115" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y115" s="0" t="s">
-        <v>44</v>
+      <c r="Z115" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="116">
@@ -9131,10 +9483,13 @@
         <v>13</v>
       </c>
       <c r="X116" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y116" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y116" s="0" t="s">
-        <v>44</v>
+      <c r="Z116" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117">
@@ -9208,10 +9563,13 @@
         <v>13</v>
       </c>
       <c r="X117" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y117" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y117" s="0" t="s">
-        <v>44</v>
+      <c r="Z117" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -9285,10 +9643,13 @@
         <v>13</v>
       </c>
       <c r="X118" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y118" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y118" s="0" t="s">
-        <v>44</v>
+      <c r="Z118" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="119">
@@ -9362,10 +9723,13 @@
         <v>13</v>
       </c>
       <c r="X119" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y119" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y119" s="0" t="s">
-        <v>44</v>
+      <c r="Z119" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -9439,10 +9803,13 @@
         <v>13</v>
       </c>
       <c r="X120" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y120" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y120" s="0" t="s">
-        <v>44</v>
+      <c r="Z120" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="121">
@@ -9516,10 +9883,13 @@
         <v>14</v>
       </c>
       <c r="X121" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y121" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y121" s="0" t="s">
-        <v>44</v>
+      <c r="Z121" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122">
@@ -9551,7 +9921,7 @@
         <v>13</v>
       </c>
       <c r="J122" s="0">
-        <v>354.5</v>
+        <v>354.66666666666669</v>
       </c>
       <c r="K122" s="0">
         <v>20</v>
@@ -9593,10 +9963,13 @@
         <v>14</v>
       </c>
       <c r="X122" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y122" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y122" s="0" t="s">
-        <v>44</v>
+      <c r="Z122" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="123">
@@ -9628,7 +10001,7 @@
         <v>40</v>
       </c>
       <c r="J123" s="0">
-        <v>357</v>
+        <v>357.33333333333331</v>
       </c>
       <c r="K123" s="0">
         <v>20</v>
@@ -9670,10 +10043,13 @@
         <v>14</v>
       </c>
       <c r="X123" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y123" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y123" s="0" t="s">
-        <v>44</v>
+      <c r="Z123" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124">
@@ -9705,7 +10081,7 @@
         <v>13</v>
       </c>
       <c r="J124" s="0">
-        <v>359.5</v>
+        <v>360</v>
       </c>
       <c r="K124" s="0">
         <v>8</v>
@@ -9747,10 +10123,13 @@
         <v>14</v>
       </c>
       <c r="X124" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y124" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y124" s="0" t="s">
-        <v>44</v>
+      <c r="Z124" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="125">
@@ -9782,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="J125" s="0">
-        <v>362</v>
+        <v>363.5</v>
       </c>
       <c r="K125" s="0">
         <v>7</v>
@@ -9824,10 +10203,13 @@
         <v>14</v>
       </c>
       <c r="X125" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y125" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y125" s="0" t="s">
-        <v>44</v>
+      <c r="Z125" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="126">
@@ -9859,7 +10241,7 @@
         <v>17</v>
       </c>
       <c r="J126" s="0">
-        <v>364.5</v>
+        <v>367</v>
       </c>
       <c r="K126" s="0">
         <v>12</v>
@@ -9901,10 +10283,13 @@
         <v>14</v>
       </c>
       <c r="X126" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y126" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y126" s="0" t="s">
-        <v>44</v>
+      <c r="Z126" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -9978,10 +10363,13 @@
         <v>14</v>
       </c>
       <c r="X127" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y127" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y127" s="0" t="s">
-        <v>44</v>
+      <c r="Z127" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="128">
@@ -10055,10 +10443,13 @@
         <v>14</v>
       </c>
       <c r="X128" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y128" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y128" s="0" t="s">
-        <v>44</v>
+      <c r="Z128" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129">
@@ -10132,10 +10523,13 @@
         <v>14</v>
       </c>
       <c r="X129" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y129" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y129" s="0" t="s">
-        <v>44</v>
+      <c r="Z129" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="130">
@@ -10209,10 +10603,13 @@
         <v>14</v>
       </c>
       <c r="X130" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y130" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y130" s="0" t="s">
-        <v>44</v>
+      <c r="Z130" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="131">
@@ -10286,10 +10683,13 @@
         <v>14</v>
       </c>
       <c r="X131" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y131" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y131" s="0" t="s">
-        <v>44</v>
+      <c r="Z131" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="132">
